--- a/configs/Textconfig.xlsx
+++ b/configs/Textconfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SongOfBoat\SongofBoat\Assets\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BFBA5A-9074-4565-AC7D-851B9767048B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926CB3B-594D-40DE-94B1-15EEBEFCC7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="1512" windowWidth="17100" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1932" yWindow="1728" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/configs/Textconfig.xlsx
+++ b/configs/Textconfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926CB3B-594D-40DE-94B1-15EEBEFCC7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD149F82-38EF-4BFB-8C56-C30116C3B3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="1728" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2040" yWindow="2436" windowWidth="18948" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
